--- a/工具/工作脚本/邮箱表.xlsx
+++ b/工具/工作脚本/邮箱表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="21000" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>发送邮件邮箱</t>
   </si>
   <si>
     <t>密码</t>
-  </si>
-  <si>
-    <t>zouzhenan@ulord.net</t>
-  </si>
-  <si>
-    <t>a1234567</t>
   </si>
   <si>
     <t>姓名</t>
@@ -39,37 +33,19 @@
     <t>zza1</t>
   </si>
   <si>
-    <t>18570367466@163.com</t>
-  </si>
-  <si>
     <t>何涛</t>
-  </si>
-  <si>
-    <t>740713651@qq.com</t>
   </si>
   <si>
     <t>zza2</t>
   </si>
   <si>
-    <t>18570367466@164.com</t>
-  </si>
-  <si>
     <t>何涛2</t>
-  </si>
-  <si>
-    <t>740713652@qq.com</t>
   </si>
   <si>
     <t>zza3</t>
   </si>
   <si>
-    <t>18570367466@165.com</t>
-  </si>
-  <si>
     <t>何涛23</t>
-  </si>
-  <si>
-    <t>740713653@qq.com</t>
   </si>
 </sst>
 </file>
@@ -77,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -122,22 +98,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +113,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,14 +128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +150,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -205,31 +181,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +411,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,26 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,17 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1019,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1060,80 +1036,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="18570367466@163.com" tooltip="mailto:18570367466@163.com"/>
-    <hyperlink ref="B5" r:id="rId2" display="740713651@qq.com" tooltip="mailto:740713651@qq.com"/>
-    <hyperlink ref="A2" r:id="rId3" display="zouzhenan@ulord.net" tooltip="mailto:zouzhenan@ulord.net"/>
-    <hyperlink ref="B6" r:id="rId1" display="18570367466@164.com" tooltip="mailto:18570367466@163.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="18570367466@165.com" tooltip="mailto:18570367466@163.com"/>
-    <hyperlink ref="B7" r:id="rId2" display="740713652@qq.com" tooltip="mailto:740713651@qq.com"/>
-    <hyperlink ref="B9" r:id="rId2" display="740713653@qq.com" tooltip="mailto:740713651@qq.com"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
